--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="12030" windowHeight="5595" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="13620" yWindow="-75" windowWidth="14970" windowHeight="12990" tabRatio="891" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1487">
   <si>
     <t>Validation of IWM-2 Waste Imput Code</t>
   </si>
@@ -4470,6 +4470,21 @@
   </si>
   <si>
     <t>Typical measure of air emissions</t>
+  </si>
+  <si>
+    <t>Coded?</t>
+  </si>
+  <si>
+    <t>TotalResidentialWaste</t>
+  </si>
+  <si>
+    <t>TotalCommercialWaste</t>
+  </si>
+  <si>
+    <t>TotalDeliveredWaste</t>
+  </si>
+  <si>
+    <t>WasteSorting.m</t>
   </si>
 </sst>
 </file>
@@ -4814,7 +4829,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4967,18 +4982,59 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="230">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -5249,1063 +5305,6 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -6632,7 +5631,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C23" sqref="B22:C23"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7922,8 +6921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10781,180 +9780,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:I17 C35:I43 I51:I74">
-    <cfRule type="cellIs" dxfId="90" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29">
-    <cfRule type="cellIs" dxfId="88" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I29 C35 H35 C36:E36 G36:H36 D38:H39 H40 C40:F40 C41:G41">
-    <cfRule type="cellIs" dxfId="87" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="84" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="81" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="79" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="76" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="69" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="66" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="61" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:I74">
-    <cfRule type="cellIs" dxfId="59" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:H106">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10970,8 +9969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12935,9 +11934,11 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="40">
+        <f>'Waste Input'!B47</f>
         <v>2000</v>
       </c>
       <c r="F102" s="40">
+        <f>'Waste Input'!I47</f>
         <v>2500</v>
       </c>
       <c r="G102" s="10" t="s">
@@ -13589,8 +12590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13736,31 +12737,31 @@
         <v>107</v>
       </c>
       <c r="B7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!E24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!E61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!E24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!E61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!E92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>11875</v>
       </c>
       <c r="C7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!F24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!F61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!F24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!F61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!F92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>5937.5</v>
       </c>
       <c r="D7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!G24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!G61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!G24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!G61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!G92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>2375</v>
       </c>
       <c r="E7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!H24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!H61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!H24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!H61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!H92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>0</v>
       </c>
       <c r="F7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!I24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!I61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!I24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!I61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!I92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>0</v>
       </c>
       <c r="G7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!J24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!J61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!J24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!J61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!J92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>2375</v>
       </c>
       <c r="H7" s="27">
-        <f>'Waste Collection'!$C$11*'Waste Collection'!K24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$C$11*'Waste Collection'!K61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)</f>
+        <f>'Waste Collection'!$C$11*'Waste Collection'!K24/1000*(1-'Waste Collection'!$H$27-'Waste Collection'!$H$28)+'Waste Collection'!$G$11*'Waste Collection'!K61/1000*(1-'Waste Collection'!$D$56-'Waste Collection'!$D$57)+'Waste Collection'!K92*(1-'Waste Collection'!$F$114-'Waste Collection'!$F$115)</f>
         <v>0</v>
       </c>
       <c r="I7" s="27">
@@ -17390,8 +16391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21752,8 +20753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28604,8 +27605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC198"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42577,15 +41578,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E57:E80 L57 L60:L63 L66:L71 T57 T60:T63 T66:T71 AB57 AB60:AB63 AB66:AB71 AJ57 AJ62:AJ67 AJ70:AJ75 AR57 AR62:AR67 AR70:AR75 AZ57:AZ58 AZ60:AZ62 AZ65:AZ70 BH57 BH63:BH68 BH71:BH76 BO57 BO61:BO63 BO65:BO67">
-    <cfRule type="cellIs" dxfId="229" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L78 T57:T78 AB57:AB78 AJ57:AJ83 AR57:AR77 AR79:AR83 AZ57:AZ75 BH57:BH82 BO57:BO74">
-    <cfRule type="cellIs" dxfId="227" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42598,8 +41599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57251,8 +56252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="B124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N149" sqref="N149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57270,32 +56271,32 @@
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="62" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="62" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="31" t="s">
         <v>1084</v>
       </c>
@@ -57311,7 +56312,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>1081</v>
       </c>
@@ -57327,7 +56328,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="64" t="s">
         <v>1055</v>
       </c>
@@ -57364,8 +56365,11 @@
       <c r="L9" s="89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="126" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
@@ -57412,8 +56416,12 @@
         <f>SUM(C10:K10)</f>
         <v>170000</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="152"/>
+      <c r="N10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -57458,8 +56466,12 @@
         <f t="shared" ref="L11:L26" si="0">SUM(C11:K11)</f>
         <v>5500</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="152"/>
+      <c r="N11" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -57506,8 +56518,12 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="152"/>
+      <c r="N12" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="9" t="s">
         <v>1056</v>
       </c>
@@ -57546,8 +56562,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="152"/>
+      <c r="N13" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>1057</v>
       </c>
@@ -57590,7 +56610,7 @@
         <v>-30000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="9" t="s">
         <v>1058</v>
       </c>
@@ -57638,7 +56658,7 @@
         <v>-23750</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="9" t="s">
         <v>1059</v>
       </c>
@@ -62849,12 +61869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" thickBot="1">
+    <row r="145" spans="1:14" ht="15.75" thickBot="1">
       <c r="A145" s="62" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:14">
       <c r="A146" s="93" t="s">
         <v>1090</v>
       </c>
@@ -62890,7 +61910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:14">
       <c r="A147" s="9" t="s">
         <v>1059</v>
       </c>
@@ -62933,8 +61953,12 @@
         <f>SUM(C147:K147)</f>
         <v>23750</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147" s="152"/>
+      <c r="N147" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="9" t="s">
         <v>1061</v>
       </c>
@@ -62975,8 +61999,12 @@
         <f t="shared" ref="L148:L159" si="15">SUM(C148:K148)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148" s="152"/>
+      <c r="N148" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="9" t="s">
         <v>1086</v>
       </c>
@@ -63020,7 +62048,7 @@
         <v>15793.75</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:14">
       <c r="A150" s="9" t="s">
         <v>1155</v>
       </c>
@@ -63059,7 +62087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:14">
       <c r="A151" s="9" t="s">
         <v>1156</v>
       </c>
@@ -63098,7 +62126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:14">
       <c r="A152" s="9" t="s">
         <v>1111</v>
       </c>
@@ -63141,7 +62169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:14">
       <c r="A153" s="9" t="s">
         <v>1157</v>
       </c>
@@ -63179,7 +62207,7 @@
         <v>13893.75</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:14">
       <c r="A154" s="9" t="s">
         <v>1117</v>
       </c>
@@ -63222,7 +62250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:14">
       <c r="A155" s="9" t="s">
         <v>1158</v>
       </c>
@@ -63260,7 +62288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:14">
       <c r="A156" s="9" t="s">
         <v>1132</v>
       </c>
@@ -63298,7 +62326,7 @@
         <v>3928.2750000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:14">
       <c r="A157" s="9" t="s">
         <v>1133</v>
       </c>
@@ -63336,7 +62364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:14">
       <c r="A158" s="9" t="s">
         <v>1139</v>
       </c>
@@ -63374,7 +62402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75" thickBot="1">
+    <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="12" t="s">
         <v>1140</v>
       </c>
@@ -65474,371 +64502,35 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 E206:E217 H216:H217">
-    <cfRule type="cellIs" dxfId="226" priority="1826" operator="equal">
+  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
+    <cfRule type="cellIs" dxfId="7" priority="1826" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="1827" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1827" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="1828" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1828" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 E206:E217 H216:H217">
-    <cfRule type="cellIs" dxfId="223" priority="1821" operator="lessThan">
+  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
+    <cfRule type="cellIs" dxfId="4" priority="1821" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="1822" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1822" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 E206:E217 H216:H217">
-    <cfRule type="cellIs" dxfId="221" priority="1805" operator="lessThan">
+  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290">
+    <cfRule type="cellIs" dxfId="2" priority="1805" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1806" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 E206:E217 H216:H217">
-    <cfRule type="cellIs" dxfId="219" priority="1777" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G218:H219">
-    <cfRule type="cellIs" dxfId="218" priority="69" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218:E219">
-    <cfRule type="cellIs" dxfId="217" priority="82" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="83" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="84" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218:E219">
-    <cfRule type="cellIs" dxfId="214" priority="80" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="81" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218:E219">
-    <cfRule type="cellIs" dxfId="212" priority="78" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="79" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218:E219">
-    <cfRule type="cellIs" dxfId="210" priority="77" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G218:H219">
-    <cfRule type="cellIs" dxfId="209" priority="74" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="75" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="76" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G218:H219">
-    <cfRule type="cellIs" dxfId="206" priority="72" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G218:H219">
-    <cfRule type="cellIs" dxfId="204" priority="70" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="71" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E220:E221">
-    <cfRule type="cellIs" dxfId="202" priority="66" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="68" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E220:E221">
-    <cfRule type="cellIs" dxfId="199" priority="64" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="65" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E220:E221">
-    <cfRule type="cellIs" dxfId="197" priority="62" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="63" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E220:E221">
-    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="194" priority="58" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="59" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="60" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="191" priority="56" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="57" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="189" priority="54" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="55" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="187" priority="53" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="186" priority="50" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="51" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="52" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="183" priority="48" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="49" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="181" priority="46" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="47" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221">
-    <cfRule type="cellIs" dxfId="179" priority="45" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E222:F222">
-    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="44" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E222:F222">
-    <cfRule type="cellIs" dxfId="175" priority="40" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="41" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E222:F222">
-    <cfRule type="cellIs" dxfId="173" priority="38" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E222:F222">
-    <cfRule type="cellIs" dxfId="171" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H222:H223">
-    <cfRule type="cellIs" dxfId="170" priority="34" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H222:H223">
-    <cfRule type="cellIs" dxfId="167" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H222:H223">
-    <cfRule type="cellIs" dxfId="165" priority="30" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H222:H223">
-    <cfRule type="cellIs" dxfId="163" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G222">
-    <cfRule type="cellIs" dxfId="162" priority="26" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G222">
-    <cfRule type="cellIs" dxfId="159" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G222">
-    <cfRule type="cellIs" dxfId="157" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G222">
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="154" priority="18" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="19" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="151" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="149" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G223">
-    <cfRule type="cellIs" dxfId="147" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="143" priority="8" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="141" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="139" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165:H223">
-    <cfRule type="cellIs" dxfId="138" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E228:E290">
-    <cfRule type="cellIs" dxfId="136" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
+    <cfRule type="cellIs" dxfId="0" priority="1777" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="-75" windowWidth="14970" windowHeight="12990" tabRatio="891" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="13620" yWindow="-75" windowWidth="14970" windowHeight="12990" tabRatio="891" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -4484,7 +4484,7 @@
     <t>TotalDeliveredWaste</t>
   </si>
   <si>
-    <t>WasteSorting.m</t>
+    <t>CollectedWasteSorting.m</t>
   </si>
 </sst>
 </file>
@@ -4997,53 +4997,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C0006"/>
@@ -5305,6 +5258,53 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -9780,180 +9780,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:I17 C35:I43 I51:I74">
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29">
-    <cfRule type="cellIs" dxfId="51" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I29 C35 H35 C36:E36 G36:H36 D38:H39 H40 C40:F40 C41:G41">
-    <cfRule type="cellIs" dxfId="50" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:I74">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:H106">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9970,7 +9970,7 @@
   <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64503,34 +64503,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
-    <cfRule type="cellIs" dxfId="7" priority="1826" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1826" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1827" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1827" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1828" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="1828" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
-    <cfRule type="cellIs" dxfId="4" priority="1821" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="1821" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1822" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1822" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290">
-    <cfRule type="cellIs" dxfId="2" priority="1805" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="1805" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1806" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
-    <cfRule type="cellIs" dxfId="0" priority="1777" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1777" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="-75" windowWidth="14970" windowHeight="12990" tabRatio="891" activeTab="1"/>
+    <workbookView xWindow="13650" yWindow="-345" windowWidth="14970" windowHeight="12990" tabRatio="891" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3949" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1487">
   <si>
     <t>Validation of IWM-2 Waste Imput Code</t>
   </si>
@@ -6921,8 +6921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9969,8 +9969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12316,23 +12316,23 @@
       </c>
       <c r="B123" s="27"/>
       <c r="C123" s="27">
-        <f>E24*E6/1000*(1-H27-H28)+E33*E6/1000*(1-E34)+E6*E48/1000+E6*E61/1000</f>
+        <f>E24*C11/1000*(1-H27-H28)+E33*C11/1000*(1-E34)+G11*E48/1000+G11*E61*(1-$D$56-$D$57)/1000</f>
         <v>22400</v>
       </c>
       <c r="D123" s="27">
-        <f>E6*F24/1000*(1-H27-H28)+E6*F48/1000+E6*F61*(1-H27-H28)</f>
+        <f>C11*F24/1000*(1-H27-H28)+G11*F48/1000+G11*F61/1000*(1-H27-H28)</f>
         <v>12187.5</v>
       </c>
       <c r="E123" s="27">
-        <f>G15*G24/1000*(1-H27-H28)+G15*G48/1000+G15*G61/1000*(1-H27-H28)</f>
+        <f>C11*G24/1000*(1-H27-H28)+G11*G48/1000+G11*G61/1000*(1-H27-H28)</f>
         <v>7375</v>
       </c>
       <c r="F123" s="27">
-        <f>$C$15*H24/1000*(1-$H$27-$H$28)+$G$15*H48/1000+G15*H61/1000*(1-$H$27-$H$28)</f>
+        <f>C11*H24/1000*(1-$H$27-$H$28)+G11*H48/1000+G11*H61/1000*(1-$H$27-$H$28)</f>
         <v>1000</v>
       </c>
       <c r="G123" s="27">
-        <f>$C$15*I24/1000*(1-$H$27-$H$28)+$G$15*I48/1000+$G$15*I61/1000*(1-$H$27-$H$28)+$C$15*(E33+F33)/1000*E34*E36</f>
+        <f>$C$11*I24/1000*(1-$H$27-$H$28)+$G$11*I48/1000+$G$11*I61/1000*(1-$H$27-$H$28)+$C$11*(E33+F33)/1000*E34*E36</f>
         <v>1000</v>
       </c>
       <c r="H123" s="27">
@@ -12591,7 +12591,7 @@
   <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16392,7 +16392,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20754,7 +20754,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27605,8 +27605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC198"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView topLeftCell="AO15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BH61" sqref="BH61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56252,8 +56252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56609,6 +56609,10 @@
         <f t="shared" si="0"/>
         <v>-30000</v>
       </c>
+      <c r="M14" s="152"/>
+      <c r="N14" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="9" t="s">
@@ -56657,6 +56661,10 @@
         <f t="shared" si="0"/>
         <v>-23750</v>
       </c>
+      <c r="M15" s="152"/>
+      <c r="N15" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="9" t="s">
@@ -56704,8 +56712,12 @@
         <f t="shared" si="0"/>
         <v>-23750</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="152"/>
+      <c r="N16" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="9" t="s">
         <v>1059</v>
       </c>
@@ -56752,8 +56764,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="152"/>
+      <c r="N17" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="9" t="s">
         <v>1060</v>
       </c>
@@ -56796,8 +56812,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="152"/>
+      <c r="N18" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="9" t="s">
         <v>1061</v>
       </c>
@@ -56842,7 +56862,7 @@
         <v>-5500</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
         <v>1062</v>
       </c>
@@ -56884,8 +56904,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="152"/>
+      <c r="N20" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="9" t="s">
         <v>1063</v>
       </c>
@@ -56932,8 +56956,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="152"/>
+      <c r="N21" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="9" t="s">
         <v>1064</v>
       </c>
@@ -56981,7 +57009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
         <v>1065</v>
       </c>
@@ -57029,7 +57057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
         <v>1066</v>
       </c>
@@ -57077,7 +57105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
         <v>1067</v>
       </c>
@@ -57125,7 +57153,7 @@
         <v>-102500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1">
       <c r="A26" s="90" t="s">
         <v>1068</v>
       </c>
@@ -57173,12 +57201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:14" ht="15.75" thickBot="1">
       <c r="A28" s="62" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:14">
       <c r="A29" s="93" t="s">
         <v>1089</v>
       </c>
@@ -57214,7 +57242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:14">
       <c r="A30" s="9" t="s">
         <v>1057</v>
       </c>
@@ -57259,8 +57287,12 @@
         <f t="shared" ref="L30:L35" si="2">SUM(C30:K30)</f>
         <v>23750</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="152"/>
+      <c r="N30" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
         <v>1059</v>
       </c>
@@ -57305,8 +57337,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="152"/>
+      <c r="N31" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="9" t="s">
         <v>1085</v>
       </c>
@@ -58432,7 +58468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="9" t="s">
         <v>1102</v>
       </c>
@@ -58481,7 +58517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="9" t="s">
         <v>1103</v>
       </c>
@@ -58530,7 +58566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="9" t="s">
         <v>1104</v>
       </c>
@@ -58579,7 +58615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="9" t="s">
         <v>1107</v>
       </c>
@@ -58628,7 +58664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="9" t="s">
         <v>1093</v>
       </c>
@@ -58678,7 +58714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="9" t="s">
         <v>1094</v>
       </c>
@@ -58719,7 +58755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="9" t="s">
         <v>1095</v>
       </c>
@@ -58760,7 +58796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1">
+    <row r="72" spans="1:14" ht="15.75" thickBot="1">
       <c r="A72" s="12" t="s">
         <v>1096</v>
       </c>
@@ -58801,12 +58837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" thickBot="1">
+    <row r="74" spans="1:14" ht="15.75" thickBot="1">
       <c r="A74" s="62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="93" t="s">
         <v>1089</v>
       </c>
@@ -58842,7 +58878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" s="9" t="s">
         <v>1055</v>
       </c>
@@ -58879,8 +58915,12 @@
         <f t="shared" ref="L76:L97" si="6">SUM(C76:K76)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="M76" s="152"/>
+      <c r="N76" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="9" t="s">
         <v>1056</v>
       </c>
@@ -58920,8 +58960,12 @@
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="M77" s="152"/>
+      <c r="N77" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="9" t="s">
         <v>1058</v>
       </c>
@@ -58958,8 +59002,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="M78" s="152"/>
+      <c r="N78" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="9" t="s">
         <v>1062</v>
       </c>
@@ -58999,8 +59047,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="M79" s="152"/>
+      <c r="N79" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="9" t="s">
         <v>1108</v>
       </c>

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="-345" windowWidth="14970" windowHeight="12990" tabRatio="891" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="11415" yWindow="15" windowWidth="17415" windowHeight="12900" tabRatio="891" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="1488">
   <si>
     <t>Validation of IWM-2 Waste Imput Code</t>
   </si>
@@ -4485,6 +4485,9 @@
   </si>
   <si>
     <t>Commercial Contamination Rates</t>
+  </si>
+  <si>
+    <t>MRFSorting.m</t>
   </si>
 </sst>
 </file>
@@ -12590,8 +12593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16392,7 +16395,7 @@
   <dimension ref="A1:Z138"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -43066,10 +43069,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK527"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A468" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A125" sqref="A125"/>
-      <selection pane="topRight" activeCell="I189" sqref="I189"/>
+      <selection pane="topRight" activeCell="H485" sqref="H485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56250,10 +56253,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O290"/>
+  <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57008,6 +57011,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M22" s="152"/>
+      <c r="N22" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9" t="s">
@@ -57056,6 +57063,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M23" s="152"/>
+      <c r="N23" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="9" t="s">
@@ -57104,6 +57115,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M24" s="152"/>
+      <c r="N24" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="9" t="s">
@@ -57152,6 +57167,10 @@
         <f t="shared" si="0"/>
         <v>-102500</v>
       </c>
+      <c r="M25" s="152"/>
+      <c r="N25" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1">
       <c r="A26" s="90" t="s">
@@ -57199,6 +57218,10 @@
       <c r="L26" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="M26" s="152"/>
+      <c r="N26" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1">
@@ -57385,8 +57408,12 @@
         <f t="shared" si="2"/>
         <v>-15793.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="152"/>
+      <c r="N32" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="47" t="s">
         <v>1086</v>
       </c>
@@ -57425,8 +57452,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="152"/>
+      <c r="N33" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="47" t="s">
         <v>1087</v>
       </c>
@@ -57471,8 +57502,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1">
+      <c r="M34" s="152"/>
+      <c r="N34" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="88" t="s">
         <v>1088</v>
       </c>
@@ -57517,13 +57552,17 @@
         <f t="shared" si="2"/>
         <v>-7956.25</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1">
+      <c r="M35" s="152"/>
+      <c r="N35" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1">
       <c r="A37" s="62" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="93" t="s">
         <v>1089</v>
       </c>
@@ -57544,7 +57583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="9" t="s">
         <v>1092</v>
       </c>
@@ -57568,8 +57607,12 @@
         <f>SUM(C39:F39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="152"/>
+      <c r="N39" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="9" t="s">
         <v>1093</v>
       </c>
@@ -57598,8 +57641,12 @@
       <c r="J40" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="152"/>
+      <c r="N40" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="9" t="s">
         <v>1094</v>
       </c>
@@ -57622,7 +57669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="9" t="s">
         <v>1095</v>
       </c>
@@ -57645,7 +57692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>1096</v>
       </c>
@@ -57668,12 +57715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1">
       <c r="A45" s="65" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="93" t="s">
         <v>1089</v>
       </c>
@@ -57712,7 +57759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="9" t="s">
         <v>1098</v>
       </c>
@@ -57761,7 +57808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="9" t="s">
         <v>1099</v>
       </c>
@@ -61145,7 +61192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:17">
       <c r="A129" s="47" t="s">
         <v>1109</v>
       </c>
@@ -61200,7 +61247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:17">
       <c r="A130" s="47" t="s">
         <v>1145</v>
       </c>
@@ -61255,7 +61302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:17">
       <c r="A131" s="47" t="s">
         <v>1126</v>
       </c>
@@ -61310,7 +61357,7 @@
         <v>2212.5</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:17">
       <c r="A132" s="47" t="s">
         <v>1127</v>
       </c>
@@ -61357,7 +61404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:17">
       <c r="A133" s="47" t="s">
         <v>1128</v>
       </c>
@@ -61412,7 +61459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:17">
       <c r="A134" s="47" t="s">
         <v>1129</v>
       </c>
@@ -61459,7 +61506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:17">
       <c r="A135" s="47" t="s">
         <v>1146</v>
       </c>
@@ -61514,7 +61561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:17">
       <c r="A136" s="47" t="s">
         <v>1135</v>
       </c>
@@ -61570,7 +61617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:17">
       <c r="A137" s="47" t="s">
         <v>1147</v>
       </c>
@@ -61618,7 +61665,7 @@
         <v>24766.90625</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:17">
       <c r="A138" s="47" t="s">
         <v>1136</v>
       </c>
@@ -61674,7 +61721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:17">
       <c r="A139" s="47" t="s">
         <v>1148</v>
       </c>
@@ -61722,7 +61769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:17">
       <c r="A140" s="47" t="s">
         <v>1149</v>
       </c>
@@ -61770,7 +61817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:17">
       <c r="A141" s="47" t="s">
         <v>1150</v>
       </c>
@@ -61818,7 +61865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:17">
       <c r="A142" s="47" t="s">
         <v>1151</v>
       </c>
@@ -61866,7 +61913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" thickBot="1">
+    <row r="143" spans="1:17" ht="15.75" thickBot="1">
       <c r="A143" s="88" t="s">
         <v>1152</v>
       </c>
@@ -61919,6 +61966,10 @@
       <c r="O143" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="P143" s="152"/>
+      <c r="Q143" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="15.75" thickBot="1">

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="15" windowWidth="17415" windowHeight="12900" tabRatio="891" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="3570" yWindow="690" windowWidth="17415" windowHeight="12900" tabRatio="891" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="1493">
   <si>
     <t>Validation of IWM-2 Waste Imput Code</t>
   </si>
@@ -4488,6 +4488,21 @@
   </si>
   <si>
     <t>MRFSorting.m</t>
+  </si>
+  <si>
+    <t>RDFSorting.m</t>
+  </si>
+  <si>
+    <t>MRFSorting.residues_to_landfill</t>
+  </si>
+  <si>
+    <t>WasteSorting.m (in restwaste to landfill)</t>
+  </si>
+  <si>
+    <t>WasteSorting.m (included in restwaste to landfill)</t>
+  </si>
+  <si>
+    <t>Not required for analysis</t>
   </si>
 </sst>
 </file>
@@ -4992,7 +5007,112 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -9783,180 +9903,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:I17 C35:I43 I51:I74">
-    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29">
-    <cfRule type="cellIs" dxfId="43" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I29 C35 H35 C36:E36 G36:H36 D38:H39 H40 C40:F40 C41:G41">
-    <cfRule type="cellIs" dxfId="42" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="71" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:I74">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:H106">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9972,8 +10092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12593,8 +12713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41581,15 +41701,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E57:E80 L57 L60:L63 L66:L71 T57 T60:T63 T66:T71 AB57 AB60:AB63 AB66:AB71 AJ57 AJ62:AJ67 AJ70:AJ75 AR57 AR62:AR67 AR70:AR75 AZ57:AZ58 AZ60:AZ62 AZ65:AZ70 BH57 BH63:BH68 BH71:BH76 BO57 BO61:BO63 BO65:BO67">
-    <cfRule type="cellIs" dxfId="56" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L78 T57:T78 AB57:AB78 AJ57:AJ83 AR57:AR77 AR79:AR83 AZ57:AZ75 BH57:BH82 BO57:BO74">
-    <cfRule type="cellIs" dxfId="54" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56255,8 +56375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56864,6 +56984,10 @@
         <f t="shared" si="0"/>
         <v>-5500</v>
       </c>
+      <c r="M19" s="152"/>
+      <c r="N19" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="9" t="s">
@@ -57184,11 +57308,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="91">
-        <f t="shared" ref="D26:K26" si="1">SUM(D10:D25)</f>
+        <f>SUM(D10:D25)</f>
         <v>0</v>
       </c>
       <c r="E26" s="91">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D26:K26" si="1">SUM(E10:E25)</f>
         <v>0</v>
       </c>
       <c r="F26" s="91">
@@ -57413,7 +57537,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="47" t="s">
         <v>1086</v>
       </c>
@@ -57457,7 +57581,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="47" t="s">
         <v>1087</v>
       </c>
@@ -57507,7 +57631,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35" s="88" t="s">
         <v>1088</v>
       </c>
@@ -57557,12 +57681,12 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1">
       <c r="A37" s="62" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" s="93" t="s">
         <v>1089</v>
       </c>
@@ -57583,7 +57707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:15">
       <c r="A39" s="9" t="s">
         <v>1092</v>
       </c>
@@ -57612,7 +57736,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
         <v>1093</v>
       </c>
@@ -57646,7 +57770,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" s="9" t="s">
         <v>1094</v>
       </c>
@@ -57669,7 +57793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" s="9" t="s">
         <v>1095</v>
       </c>
@@ -57692,7 +57816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>1096</v>
       </c>
@@ -57715,12 +57839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1">
       <c r="A45" s="65" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="93" t="s">
         <v>1089</v>
       </c>
@@ -57759,7 +57883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="9" t="s">
         <v>1098</v>
       </c>
@@ -57807,8 +57931,12 @@
         <f t="shared" ref="M47:M57" si="4">SUM(C47:K47)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="N47" s="152"/>
+      <c r="O47" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="9" t="s">
         <v>1099</v>
       </c>
@@ -57856,8 +57984,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="152"/>
+      <c r="O48" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="9" t="s">
         <v>1100</v>
       </c>
@@ -57905,8 +58037,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="152"/>
+      <c r="O49" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="9" t="s">
         <v>1101</v>
       </c>
@@ -57954,8 +58090,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="152"/>
+      <c r="O50" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="9" t="s">
         <v>1102</v>
       </c>
@@ -58003,8 +58143,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="152"/>
+      <c r="O51" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="9" t="s">
         <v>1103</v>
       </c>
@@ -58052,8 +58196,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="152"/>
+      <c r="O52" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="9" t="s">
         <v>1104</v>
       </c>
@@ -58101,8 +58249,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="152"/>
+      <c r="O53" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="9" t="s">
         <v>1093</v>
       </c>
@@ -58151,8 +58303,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="152"/>
+      <c r="O54" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="9" t="s">
         <v>1094</v>
       </c>
@@ -58193,7 +58349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="9" t="s">
         <v>1095</v>
       </c>
@@ -58234,7 +58390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="A57" s="12" t="s">
         <v>1096</v>
       </c>
@@ -58275,12 +58431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1">
+    <row r="59" spans="1:15" ht="15.75" thickBot="1">
       <c r="A59" s="65" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="93" t="s">
         <v>1089</v>
       </c>
@@ -58319,7 +58475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="9" t="s">
         <v>1098</v>
       </c>
@@ -58367,8 +58523,12 @@
         <f t="shared" ref="M61:M72" si="5">SUM(C61:K61)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="152"/>
+      <c r="O61" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="9" t="s">
         <v>1099</v>
       </c>
@@ -58416,8 +58576,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="152"/>
+      <c r="O62" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="9" t="s">
         <v>1100</v>
       </c>
@@ -58465,8 +58629,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="152"/>
+      <c r="O63" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="9" t="s">
         <v>1101</v>
       </c>
@@ -58514,8 +58682,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="N64" s="152"/>
+      <c r="O64" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="9" t="s">
         <v>1102</v>
       </c>
@@ -58563,8 +58735,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="N65" s="152"/>
+      <c r="O65" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="9" t="s">
         <v>1103</v>
       </c>
@@ -58612,8 +58788,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="N66" s="152"/>
+      <c r="O66" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="9" t="s">
         <v>1104</v>
       </c>
@@ -58661,8 +58841,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="N67" s="152"/>
+      <c r="O67" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="9" t="s">
         <v>1107</v>
       </c>
@@ -58710,8 +58894,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="N68" s="61" t="s">
+        <v>1492</v>
+      </c>
+      <c r="O68" s="61"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="9" t="s">
         <v>1093</v>
       </c>
@@ -58760,8 +58948,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="N69" s="152"/>
+      <c r="O69" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="9" t="s">
         <v>1094</v>
       </c>
@@ -58802,7 +58994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71" s="9" t="s">
         <v>1095</v>
       </c>
@@ -58843,7 +59035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75" thickBot="1">
+    <row r="72" spans="1:15" ht="15.75" thickBot="1">
       <c r="A72" s="12" t="s">
         <v>1096</v>
       </c>
@@ -58884,12 +59076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1">
+    <row r="74" spans="1:15" ht="15.75" thickBot="1">
       <c r="A74" s="62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:15">
       <c r="A75" s="93" t="s">
         <v>1089</v>
       </c>
@@ -58925,7 +59117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:15">
       <c r="A76" s="9" t="s">
         <v>1055</v>
       </c>
@@ -58967,7 +59159,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:15">
       <c r="A77" s="9" t="s">
         <v>1056</v>
       </c>
@@ -59012,7 +59204,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:15">
       <c r="A78" s="9" t="s">
         <v>1058</v>
       </c>
@@ -59054,7 +59246,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:15">
       <c r="A79" s="9" t="s">
         <v>1062</v>
       </c>
@@ -59099,7 +59291,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:15">
       <c r="A80" s="9" t="s">
         <v>1108</v>
       </c>
@@ -59144,8 +59336,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="152"/>
+      <c r="N80" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="9" t="s">
         <v>1109</v>
       </c>
@@ -59190,8 +59386,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="152"/>
+      <c r="N81" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="9" t="s">
         <v>1124</v>
       </c>
@@ -59236,8 +59436,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="152"/>
+      <c r="N82" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="9" t="s">
         <v>1110</v>
       </c>
@@ -59280,7 +59484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:14">
       <c r="A84" s="9" t="s">
         <v>1111</v>
       </c>
@@ -59326,7 +59530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:14">
       <c r="A85" s="9" t="s">
         <v>1112</v>
       </c>
@@ -59372,7 +59576,7 @@
         <v>-2212.5</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:14">
       <c r="A86" s="9" t="s">
         <v>1291</v>
       </c>
@@ -59411,7 +59615,7 @@
         <v>-13893.75</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:14">
       <c r="A87" s="9" t="s">
         <v>1113</v>
       </c>
@@ -59450,7 +59654,7 @@
         <v>-13893.75</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:14">
       <c r="A88" s="9" t="s">
         <v>1114</v>
       </c>
@@ -59489,7 +59693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:14">
       <c r="A89" s="9" t="s">
         <v>1115</v>
       </c>
@@ -59528,7 +59732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:14">
       <c r="A90" s="9" t="s">
         <v>1116</v>
       </c>
@@ -59571,7 +59775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:14">
       <c r="A91" s="9" t="s">
         <v>1117</v>
       </c>
@@ -59617,7 +59821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:14">
       <c r="A92" s="9" t="s">
         <v>1118</v>
       </c>
@@ -59663,7 +59867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:14">
       <c r="A93" s="9" t="s">
         <v>1119</v>
       </c>
@@ -59702,7 +59906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:14">
       <c r="A94" s="9" t="s">
         <v>1120</v>
       </c>
@@ -59741,7 +59945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:14">
       <c r="A95" s="9" t="s">
         <v>1121</v>
       </c>
@@ -59780,7 +59984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:14">
       <c r="A96" s="9" t="s">
         <v>1122</v>
       </c>
@@ -60474,7 +60678,7 @@
         <v>-21486.90625</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:17">
       <c r="A113" s="47" t="s">
         <v>1134</v>
       </c>
@@ -60524,7 +60728,7 @@
         <v>-3279.9999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:17">
       <c r="A114" s="47" t="s">
         <v>1136</v>
       </c>
@@ -60574,7 +60778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:17">
       <c r="A115" s="47" t="s">
         <v>1137</v>
       </c>
@@ -60624,7 +60828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:17">
       <c r="A116" s="47" t="s">
         <v>1138</v>
       </c>
@@ -60665,7 +60869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:17">
       <c r="A117" s="47" t="s">
         <v>1139</v>
       </c>
@@ -60715,7 +60919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:17">
       <c r="A118" s="47" t="s">
         <v>1140</v>
       </c>
@@ -60765,7 +60969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" thickBot="1">
+    <row r="119" spans="1:17" ht="15.75" thickBot="1">
       <c r="A119" s="88" t="s">
         <v>1141</v>
       </c>
@@ -60815,12 +61019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" thickBot="1">
+    <row r="121" spans="1:17" ht="15.75" thickBot="1">
       <c r="A121" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:17">
       <c r="A122" s="93" t="s">
         <v>1089</v>
       </c>
@@ -60865,7 +61069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:17">
       <c r="A123" s="9" t="s">
         <v>1061</v>
       </c>
@@ -60916,8 +61120,12 @@
         <f>SUM(C123:N123)</f>
         <v>5500</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123" s="152"/>
+      <c r="Q123" s="49" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="47" t="s">
         <v>1125</v>
       </c>
@@ -60971,8 +61179,12 @@
         <f t="shared" ref="O124:O143" si="13">SUM(C124:N124)</f>
         <v>7956.25</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124" s="152"/>
+      <c r="Q124" s="49" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="47" t="s">
         <v>1142</v>
       </c>
@@ -61026,8 +61238,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125" s="152"/>
+      <c r="Q125" s="49" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="47" t="s">
         <v>1108</v>
       </c>
@@ -61082,7 +61298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:17">
       <c r="A127" s="47" t="s">
         <v>1143</v>
       </c>
@@ -61137,7 +61353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:17">
       <c r="A128" s="47" t="s">
         <v>1144</v>
       </c>
@@ -64605,35 +64821,35 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
-    <cfRule type="cellIs" dxfId="53" priority="1826" operator="equal">
+  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 Q123:Q125">
+    <cfRule type="cellIs" dxfId="71" priority="1826" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="1827" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1827" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="1828" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="1828" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
-    <cfRule type="cellIs" dxfId="50" priority="1821" operator="lessThan">
+  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 Q123:Q125">
+    <cfRule type="cellIs" dxfId="68" priority="1821" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="1822" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1822" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290">
-    <cfRule type="cellIs" dxfId="48" priority="1805" operator="lessThan">
+  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290 Q123:Q125">
+    <cfRule type="cellIs" dxfId="66" priority="1805" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1806" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223">
-    <cfRule type="cellIs" dxfId="46" priority="1777" operator="equal">
+  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 Q123:Q125">
+    <cfRule type="cellIs" dxfId="64" priority="1777" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="690" windowWidth="17415" windowHeight="12900" tabRatio="891" activeTab="1"/>
+    <workbookView xWindow="3570" yWindow="690" windowWidth="17415" windowHeight="12240" tabRatio="891" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Results" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="1495">
   <si>
     <t>Validation of IWM-2 Waste Imput Code</t>
   </si>
@@ -4499,10 +4500,16 @@
     <t>WasteSorting.m (in restwaste to landfill)</t>
   </si>
   <si>
-    <t>WasteSorting.m (included in restwaste to landfill)</t>
-  </si>
-  <si>
     <t>Not required for analysis</t>
+  </si>
+  <si>
+    <t>BiologicalTreatment.m</t>
+  </si>
+  <si>
+    <t>WasteSorting.m (included in restwaste to thermal/landfill)</t>
+  </si>
+  <si>
+    <t>WasteSorting.m (included in restwaste to thermal)</t>
   </si>
 </sst>
 </file>
@@ -5007,7 +5014,289 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="141">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -5046,6 +5335,159 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -5381,53 +5823,6 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -9903,180 +10298,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:I17 C35:I43 I51:I74">
-    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29">
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I29 C35 H35 C36:E36 G36:H36 D38:H39 H40 C40:F40 C41:G41">
-    <cfRule type="cellIs" dxfId="60" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="71" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="40" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="35" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:I74">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:H106">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10092,8 +10487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16514,8 +16909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41701,15 +42096,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E57:E80 L57 L60:L63 L66:L71 T57 T60:T63 T66:T71 AB57 AB60:AB63 AB66:AB71 AJ57 AJ62:AJ67 AJ70:AJ75 AR57 AR62:AR67 AR70:AR75 AZ57:AZ58 AZ60:AZ62 AZ65:AZ70 BH57 BH63:BH68 BH71:BH76 BO57 BO61:BO63 BO65:BO67">
-    <cfRule type="cellIs" dxfId="74" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L78 T57:T78 AB57:AB78 AJ57:AJ83 AR57:AR77 AR79:AR83 AZ57:AZ75 BH57:BH82 BO57:BO74">
-    <cfRule type="cellIs" dxfId="72" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56375,8 +56770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P137" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56986,7 +57381,7 @@
       </c>
       <c r="M19" s="152"/>
       <c r="N19" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -57312,7 +57707,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="91">
-        <f t="shared" ref="D26:K26" si="1">SUM(E10:E25)</f>
+        <f t="shared" ref="E26:K26" si="1">SUM(E10:E25)</f>
         <v>0</v>
       </c>
       <c r="F26" s="91">
@@ -58895,7 +59290,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="O68" s="61"/>
     </row>
@@ -59483,6 +59878,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M83" s="152"/>
+      <c r="N83" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="9" t="s">
@@ -59528,6 +59927,10 @@
       <c r="L84" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
+      </c>
+      <c r="M84" s="152"/>
+      <c r="N84" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -59575,6 +59978,10 @@
         <f t="shared" si="6"/>
         <v>-2212.5</v>
       </c>
+      <c r="M85" s="152"/>
+      <c r="N85" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="9" t="s">
@@ -59614,6 +60021,9 @@
         <f t="shared" si="6"/>
         <v>-13893.75</v>
       </c>
+      <c r="M86" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="9" t="s">
@@ -59653,6 +60063,10 @@
         <f t="shared" si="6"/>
         <v>-13893.75</v>
       </c>
+      <c r="M87" s="152"/>
+      <c r="N87" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="9" t="s">
@@ -59692,6 +60106,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M88" s="152"/>
+      <c r="N88" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="9" t="s">
@@ -59731,6 +60149,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M89" s="152"/>
+      <c r="N89" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="9" t="s">
@@ -59774,6 +60196,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M90" s="152"/>
+      <c r="N90" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="9" t="s">
@@ -59820,6 +60246,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M91" s="152"/>
+      <c r="N91" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="9" t="s">
@@ -59866,6 +60296,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M92" s="152"/>
+      <c r="N92" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="9" t="s">
@@ -59905,6 +60339,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M93" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="9" t="s">
@@ -59944,6 +60381,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M94" s="152"/>
+      <c r="N94" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="9" t="s">
@@ -59983,6 +60424,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="M95" s="152"/>
+      <c r="N95" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="9" t="s">
@@ -60022,8 +60467,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1">
+      <c r="M96" s="152"/>
+      <c r="N96" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15.75" thickBot="1">
       <c r="A97" s="12" t="s">
         <v>1123</v>
       </c>
@@ -60068,13 +60517,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" thickBot="1">
+      <c r="M97" s="152"/>
+      <c r="N97" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15.75" thickBot="1">
       <c r="A99" s="62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="93" t="s">
         <v>1089</v>
       </c>
@@ -60113,7 +60566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="9" t="s">
         <v>1061</v>
       </c>
@@ -60158,8 +60611,12 @@
         <f>SUM(C101:L101)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="152"/>
+      <c r="O101" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="47" t="s">
         <v>1125</v>
       </c>
@@ -60207,8 +60664,12 @@
         <f t="shared" ref="M102:M119" si="9">SUM(C102:L102)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="152"/>
+      <c r="O102" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="47" t="s">
         <v>1126</v>
       </c>
@@ -60256,8 +60717,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="152"/>
+      <c r="O103" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="47" t="s">
         <v>1127</v>
       </c>
@@ -60297,8 +60762,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="152"/>
+      <c r="O104" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="47" t="s">
         <v>1128</v>
       </c>
@@ -60346,8 +60815,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="152"/>
+      <c r="O105" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="47" t="s">
         <v>1129</v>
       </c>
@@ -60387,8 +60860,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="152"/>
+      <c r="O106" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="47" t="s">
         <v>1124</v>
       </c>
@@ -60436,8 +60913,12 @@
         <f t="shared" si="9"/>
         <v>102500</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="152"/>
+      <c r="O107" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="47" t="s">
         <v>1135</v>
       </c>
@@ -60487,7 +60968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:15">
       <c r="A109" s="47" t="s">
         <v>1130</v>
       </c>
@@ -60537,7 +61018,7 @@
         <v>-73804.818749999991</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="47" t="s">
         <v>1131</v>
       </c>
@@ -60578,7 +61059,7 @@
         <v>-3928.2750000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="47" t="s">
         <v>1132</v>
       </c>
@@ -60628,7 +61109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="47" t="s">
         <v>1133</v>
       </c>
@@ -61297,6 +61778,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P126" s="152"/>
+      <c r="Q126" s="49" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="47" t="s">
@@ -61352,6 +61837,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P127" s="152"/>
+      <c r="Q127" s="49" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="47" t="s">
@@ -61407,6 +61896,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P128" s="152"/>
+      <c r="Q128" s="49" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="47" t="s">
@@ -61462,6 +61955,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P129" s="152"/>
+      <c r="Q129" s="49" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="47" t="s">
@@ -61516,6 +62013,10 @@
       <c r="O130" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="P130" s="152"/>
+      <c r="Q130" s="49" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -61572,6 +62073,10 @@
         <f t="shared" si="13"/>
         <v>2212.5</v>
       </c>
+      <c r="P131" s="152"/>
+      <c r="Q131" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="47" t="s">
@@ -61619,6 +62124,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P132" s="152"/>
+      <c r="Q132" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="47" t="s">
@@ -61674,6 +62183,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P133" s="152"/>
+      <c r="Q133" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="47" t="s">
@@ -61721,6 +62234,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P134" s="152"/>
+      <c r="Q134" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="47" t="s">
@@ -61775,6 +62292,10 @@
       <c r="O135" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="P135" s="152"/>
+      <c r="Q135" s="49" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -62366,6 +62887,10 @@
         <f t="shared" si="15"/>
         <v>15793.75</v>
       </c>
+      <c r="M149" s="152"/>
+      <c r="N149" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="9" t="s">
@@ -62405,6 +62930,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="M150" s="152"/>
+      <c r="N150" s="49" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="9" t="s">
@@ -62444,6 +62973,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="M151" s="152"/>
+      <c r="N151" s="49" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="9" t="s">
@@ -62487,6 +63020,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="M152" s="152"/>
+      <c r="N152" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="9" t="s">
@@ -62525,6 +63062,10 @@
         <f t="shared" si="15"/>
         <v>13893.75</v>
       </c>
+      <c r="M153" s="152"/>
+      <c r="N153" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="9" t="s">
@@ -62568,6 +63109,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="M154" s="152"/>
+      <c r="N154" s="49" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="9" t="s">
@@ -62605,6 +63150,10 @@
       <c r="L155" s="11">
         <f t="shared" si="15"/>
         <v>0</v>
+      </c>
+      <c r="M155" s="152"/>
+      <c r="N155" s="49" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -64821,35 +65370,131 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 Q123:Q125">
-    <cfRule type="cellIs" dxfId="71" priority="1826" operator="equal">
+  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
+    <cfRule type="cellIs" dxfId="61" priority="1898" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="1827" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1899" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="1828" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="1900" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 Q123:Q125">
-    <cfRule type="cellIs" dxfId="68" priority="1821" operator="lessThan">
+  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
+    <cfRule type="cellIs" dxfId="58" priority="1893" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="1822" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1894" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290 Q123:Q125">
-    <cfRule type="cellIs" dxfId="66" priority="1805" operator="lessThan">
+  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290 N150:N155 Q123:Q131">
+    <cfRule type="cellIs" dxfId="56" priority="1877" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="1806" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1878" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 Q123:Q125">
-    <cfRule type="cellIs" dxfId="64" priority="1777" operator="equal">
+  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
+    <cfRule type="cellIs" dxfId="54" priority="1849" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q132">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q132">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q132">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q132">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q133:Q134">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q133:Q134">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q133:Q134">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q133:Q134">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q135">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q135">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q135">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q135">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="690" windowWidth="17415" windowHeight="12240" tabRatio="891" activeTab="8"/>
+    <workbookView xWindow="10140" yWindow="-75" windowWidth="9225" windowHeight="8790" tabRatio="891" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Results" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -5014,547 +5013,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="141">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -5823,6 +5282,194 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -10298,180 +9945,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:I17 C35:I43 I51:I74">
-    <cfRule type="cellIs" dxfId="137" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29">
-    <cfRule type="cellIs" dxfId="135" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I29 C35 H35 C36:E36 G36:H36 D38:H39 H40 C40:F40 C41:G41">
-    <cfRule type="cellIs" dxfId="134" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="131" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="126" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="121" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="116" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="113" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="111" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="108" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:I74">
-    <cfRule type="cellIs" dxfId="106" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="104" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="101" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:H106">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21271,8 +20918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42096,15 +41743,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E57:E80 L57 L60:L63 L66:L71 T57 T60:T63 T66:T71 AB57 AB60:AB63 AB66:AB71 AJ57 AJ62:AJ67 AJ70:AJ75 AR57 AR62:AR67 AR70:AR75 AZ57:AZ58 AZ60:AZ62 AZ65:AZ70 BH57 BH63:BH68 BH71:BH76 BO57 BO61:BO63 BO65:BO67">
-    <cfRule type="cellIs" dxfId="140" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L78 T57:T78 AB57:AB78 AJ57:AJ83 AR57:AR77 AR79:AR83 AZ57:AZ75 BH57:BH82 BO57:BO74">
-    <cfRule type="cellIs" dxfId="138" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56770,8 +56417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P137" sqref="P137"/>
+    <sheetView topLeftCell="A50" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -65371,130 +65018,130 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="61" priority="1898" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1898" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="1899" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1899" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="1900" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="1900" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="58" priority="1893" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="1893" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="1894" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1894" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="56" priority="1877" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="1877" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="1878" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1878" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="54" priority="1849" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1849" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WasteManagementSystem/IWM-2 Model (08022011).xlsx
+++ b/WasteManagementSystem/IWM-2 Model (08022011).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="-75" windowWidth="9225" windowHeight="8790" tabRatio="891" activeTab="4"/>
+    <workbookView xWindow="10110" yWindow="0" windowWidth="9225" windowHeight="12510" tabRatio="922" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Waste Input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4037" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="1497">
   <si>
     <t>Validation of IWM-2 Waste Imput Code</t>
   </si>
@@ -4509,6 +4509,12 @@
   </si>
   <si>
     <t>WasteSorting.m (included in restwaste to thermal)</t>
+  </si>
+  <si>
+    <t>ThermalTreatment.m</t>
+  </si>
+  <si>
+    <t>Incinerator 2 not included in MATLAB version</t>
   </si>
 </sst>
 </file>
@@ -4853,7 +4859,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5007,13 +5013,331 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="135">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -9945,180 +10269,180 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C13:I17 C35:I43 I51:I74">
-    <cfRule type="cellIs" dxfId="45" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="74" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I29">
-    <cfRule type="cellIs" dxfId="43" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I29 C35 H35 C36:E36 G36:H36 D38:H39 H40 C40:F40 C41:G41">
-    <cfRule type="cellIs" dxfId="42" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="71" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="35" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:I74">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F106">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80:I106">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80:H106">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12755,8 +13079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L139" sqref="L139"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20918,8 +21242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A217" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27770,8 +28094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC198"/>
   <sheetViews>
-    <sheetView topLeftCell="AO15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH61" sqref="BH61"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41743,15 +42067,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E57:E80 L57 L60:L63 L66:L71 T57 T60:T63 T66:T71 AB57 AB60:AB63 AB66:AB71 AJ57 AJ62:AJ67 AJ70:AJ75 AR57 AR62:AR67 AR70:AR75 AZ57:AZ58 AZ60:AZ62 AZ65:AZ70 BH57 BH63:BH68 BH71:BH76 BO57 BO61:BO63 BO65:BO67">
-    <cfRule type="cellIs" dxfId="80" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="145" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="146" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:L78 T57:T78 AB57:AB78 AJ57:AJ83 AR57:AR77 AR79:AR83 AZ57:AZ75 BH57:BH82 BO57:BO74">
-    <cfRule type="cellIs" dxfId="78" priority="136" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43231,10 +43555,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK527"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A125" sqref="A125"/>
-      <selection pane="topRight" activeCell="H485" sqref="H485"/>
+      <selection pane="topRight" activeCell="F507" sqref="F507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56417,8 +56741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q134" sqref="Q134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57834,6 +58158,9 @@
         <f t="shared" ref="G41:G43" si="3">SUM(C41:F41)</f>
         <v>0</v>
       </c>
+      <c r="M41" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="9" t="s">
@@ -57857,6 +58184,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M42" s="152"/>
+      <c r="N42" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" thickBot="1">
       <c r="A43" s="12" t="s">
@@ -57880,6 +58211,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M43" s="152"/>
+      <c r="N43" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" thickBot="1">
       <c r="A45" s="65" t="s">
@@ -58390,6 +58725,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N55" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="9" t="s">
@@ -58431,6 +58769,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N56" s="152"/>
+      <c r="O56" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="A57" s="12" t="s">
@@ -58472,6 +58814,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="N57" s="152"/>
+      <c r="O57" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1">
       <c r="A59" s="65" t="s">
@@ -59035,6 +59381,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N70" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="9" t="s">
@@ -59076,6 +59425,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="N71" s="152"/>
+      <c r="O71" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="72" spans="1:15" ht="15.75" thickBot="1">
       <c r="A72" s="12" t="s">
@@ -59116,6 +59469,10 @@
       <c r="M72" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="N72" s="152"/>
+      <c r="O72" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="15.75" thickBot="1">
@@ -60614,6 +60971,10 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="N108" s="152"/>
+      <c r="O108" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="47" t="s">
@@ -60664,6 +61025,9 @@
         <f t="shared" si="9"/>
         <v>-73804.818749999991</v>
       </c>
+      <c r="N109" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="47" t="s">
@@ -60705,6 +61069,10 @@
         <f t="shared" si="9"/>
         <v>-3928.2750000000001</v>
       </c>
+      <c r="N110" s="152"/>
+      <c r="O110" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="47" t="s">
@@ -60754,6 +61122,9 @@
       <c r="M111" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="N111" s="61" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -60805,6 +61176,10 @@
         <f t="shared" si="9"/>
         <v>-21486.90625</v>
       </c>
+      <c r="N112" s="152"/>
+      <c r="O112" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="47" t="s">
@@ -60855,6 +61230,10 @@
         <f t="shared" si="9"/>
         <v>-3279.9999999999995</v>
       </c>
+      <c r="N113" s="152"/>
+      <c r="O113" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="47" t="s">
@@ -60905,6 +61284,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="N114" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="47" t="s">
@@ -60955,6 +61337,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="N115" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="47" t="s">
@@ -60996,6 +61381,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="N116" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="47" t="s">
@@ -61046,6 +61434,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="N117" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="47" t="s">
@@ -61096,6 +61487,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="N118" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="119" spans="1:17" ht="15.75" thickBot="1">
       <c r="A119" s="88" t="s">
@@ -61145,6 +61539,9 @@
       <c r="M119" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
+      </c>
+      <c r="N119" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="15.75" thickBot="1">
@@ -62000,6 +62397,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P136" s="152"/>
+      <c r="Q136" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="47" t="s">
@@ -62036,7 +62437,7 @@
       <c r="L137" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="M137" s="54">
+      <c r="M137" s="153">
         <f>(1-'Thermal Treatment'!$E$81)*('Thermal Treatment'!D38*'Thermal Treatment'!C72+'Thermal Treatment'!E38*'Thermal Treatment'!D72)+'Thermal Treatment'!F38*'Thermal Treatment'!E72*(1-'Thermal Treatment'!$E$81)*(1-'Thermal Treatment'!E80)+(1-'Thermal Treatment'!$E$81)*('Thermal Treatment'!G38*'Thermal Treatment'!F72+'Thermal Treatment'!H38*'Thermal Treatment'!G72+'Thermal Treatment'!I38*'Thermal Treatment'!H72+'Thermal Treatment'!J38*'Thermal Treatment'!I72+'Thermal Treatment'!K38*'Thermal Treatment'!J72+'Thermal Treatment'!L38*'Thermal Treatment'!K72+'Thermal Treatment'!M38*'Thermal Treatment'!L72)</f>
         <v>21486.90625</v>
       </c>
@@ -62048,6 +62449,10 @@
         <f t="shared" si="13"/>
         <v>24766.90625</v>
       </c>
+      <c r="P137" s="152"/>
+      <c r="Q137" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="47" t="s">
@@ -62104,6 +62509,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P138" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="47" t="s">
@@ -62152,6 +62560,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P139" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="47" t="s">
@@ -62200,6 +62611,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P140" s="152"/>
+      <c r="Q140" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="47" t="s">
@@ -62248,6 +62663,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P141" s="152"/>
+      <c r="Q141" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="47" t="s">
@@ -62295,6 +62714,10 @@
       <c r="O142" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+      <c r="P142" s="152"/>
+      <c r="Q142" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="15.75" thickBot="1">
@@ -62840,6 +63263,10 @@
         <f t="shared" si="15"/>
         <v>3928.2750000000001</v>
       </c>
+      <c r="M156" s="152"/>
+      <c r="N156" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="9" t="s">
@@ -62878,6 +63305,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="M157" s="61" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="9" t="s">
@@ -62916,6 +63346,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="M158" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="159" spans="1:14" ht="15.75" thickBot="1">
       <c r="A159" s="12" t="s">
@@ -62953,6 +63386,9 @@
       <c r="L159" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -63579,7 +64015,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:10">
       <c r="A193" s="9" t="s">
         <v>1187</v>
       </c>
@@ -63600,7 +64036,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:10">
       <c r="A194" s="9" t="s">
         <v>1188</v>
       </c>
@@ -63621,7 +64057,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:10">
       <c r="A195" s="9" t="s">
         <v>1189</v>
       </c>
@@ -63642,7 +64078,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:10">
       <c r="A196" s="9" t="s">
         <v>1190</v>
       </c>
@@ -63664,7 +64100,7 @@
         <v>23575</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:10">
       <c r="A197" s="9" t="s">
         <v>1191</v>
       </c>
@@ -63684,8 +64120,12 @@
       <c r="H197" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" s="152"/>
+      <c r="J197" s="49" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="9" t="s">
         <v>1192</v>
       </c>
@@ -63706,7 +64146,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:10">
       <c r="A199" s="9" t="s">
         <v>1193</v>
       </c>
@@ -63727,7 +64167,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:10">
       <c r="A200" s="9" t="s">
         <v>1194</v>
       </c>
@@ -63749,7 +64189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:10">
       <c r="A201" s="9" t="s">
         <v>1195</v>
       </c>
@@ -63770,7 +64210,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:10">
       <c r="A202" s="9" t="s">
         <v>1196</v>
       </c>
@@ -63791,7 +64231,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:10">
       <c r="A203" s="9" t="s">
         <v>1197</v>
       </c>
@@ -63812,7 +64252,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:10">
       <c r="A204" s="9" t="s">
         <v>1198</v>
       </c>
@@ -63834,7 +64274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:10">
       <c r="A205" s="9" t="s">
         <v>1199</v>
       </c>
@@ -63854,8 +64294,12 @@
       <c r="H205" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" s="152"/>
+      <c r="J205" s="49" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="9" t="s">
         <v>1200</v>
       </c>
@@ -63876,7 +64320,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:10">
       <c r="A207" s="9" t="s">
         <v>1201</v>
       </c>
@@ -63897,7 +64341,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:10">
       <c r="A208" s="9" t="s">
         <v>1202</v>
       </c>
@@ -63919,7 +64363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:10">
       <c r="A209" s="9" t="s">
         <v>1203</v>
       </c>
@@ -63939,8 +64383,12 @@
       <c r="H209" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" s="152"/>
+      <c r="J209" s="49" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="9" t="s">
         <v>1204</v>
       </c>
@@ -63961,7 +64409,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:10">
       <c r="A211" s="9" t="s">
         <v>1205</v>
       </c>
@@ -63982,7 +64430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:10">
       <c r="A212" s="9" t="s">
         <v>1206</v>
       </c>
@@ -64004,7 +64452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:10">
       <c r="A213" s="9" t="s">
         <v>1207</v>
       </c>
@@ -64024,8 +64472,12 @@
       <c r="H213" s="11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" s="152"/>
+      <c r="J213" s="49" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="9" t="s">
         <v>1208</v>
       </c>
@@ -64046,7 +64498,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:10">
       <c r="A215" s="9" t="s">
         <v>1209</v>
       </c>
@@ -64067,7 +64519,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:10">
       <c r="A216" s="9" t="s">
         <v>1210</v>
       </c>
@@ -64089,7 +64541,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:10">
       <c r="A217" s="9" t="s">
         <v>1211</v>
       </c>
@@ -64111,7 +64563,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:10">
       <c r="A218" s="9" t="s">
         <v>1219</v>
       </c>
@@ -64132,7 +64584,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:10">
       <c r="A219" s="9" t="s">
         <v>1220</v>
       </c>
@@ -64153,7 +64605,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:10">
       <c r="A220" s="9" t="s">
         <v>1212</v>
       </c>
@@ -64175,7 +64627,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:10">
       <c r="A221" s="9" t="s">
         <v>1213</v>
       </c>
@@ -64197,7 +64649,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:10">
       <c r="A222" s="9" t="s">
         <v>1214</v>
       </c>
@@ -64218,7 +64670,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" thickBot="1">
+    <row r="223" spans="1:10" ht="15.75" thickBot="1">
       <c r="A223" s="12" t="s">
         <v>1215</v>
       </c>
@@ -65017,131 +65469,227 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="77" priority="1898" operator="equal">
+  <conditionalFormatting sqref="E196:F197 L30:L35 J32:K32 I33:K33 D33:F33 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 L76:L97 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C10:L26 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131 J197">
+    <cfRule type="cellIs" dxfId="131" priority="1922" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="1899" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="1923" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="1900" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="1924" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="74" priority="1893" operator="lessThan">
+  <conditionalFormatting sqref="E196:F197 C30:L35 F39 C41:E43 M47:M57 L47:L53 C55:K57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131 J197">
+    <cfRule type="cellIs" dxfId="128" priority="1917" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="1894" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1918" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="72" priority="1877" operator="lessThan">
+  <conditionalFormatting sqref="C39:G43 C47:K47 C49:K57 M47:M57 L47:L53 C61:M72 C76:L97 C101:M119 C123:O143 C147:L159 E165:H223 E228:E290 N150:N155 Q123:Q131 J197">
+    <cfRule type="cellIs" dxfId="126" priority="1901" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="1878" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1902" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131">
-    <cfRule type="cellIs" dxfId="70" priority="1849" operator="equal">
+  <conditionalFormatting sqref="E196:F197 C47:K56 K55:K57 L47:M57 L61:L68 C70:K72 M61:M72 C76:I76 D77:F79 C78 I77 G78:I78 I79 K76:K79 C83 J83:K83 D86:I89 K86:K89 C90 J90:K90 K93:K96 D93:I96 C101 I101:J101 L101:L103 C104:K104 L105 C106:K106 L107:L108 C110:D110 F110:L110 C116:D116 F116:L116 I123:J123 L123:N131 C132:K132 M132:N132 L133:N133 C134:K134 M134:N134 L135:N135 M136:N136 C137:L137 M138:N138 C139:L142 L143:N143 J147:K147 C148 I148:K148 J149:K149 G150:K150 G150:G151 C150:D151 H151:I151 C152 J151:K152 C153:I153 K153 C154 J154:K154 C155:I155 K155 C156:D156 F156:K156 C157:J157 C158:D158 F158:K158 C159:J159 E194:E195 G194:H195 H197 E165:E168 E170:E176 G165:H176 E177:F177 H177 E178:E183 G179:H183 E184:F184 E185:E187 G185:H187 E188:F189 H189 E190:E191 G190:H191 E192:F193 H192:H193 E198:E199 G198:H199 E200:F201 H201 E202:E203 G202:H203 E204:F205 H205 G206:H207 F208:F209 G210:G211 H209:H211 F212:F213 H213 G214:H215 H216:H217 G218:H219 E206:E221 H220:H221 E222:F222 G222:H223 E223 N150:N155 Q123:Q131 J197">
+    <cfRule type="cellIs" dxfId="124" priority="1873" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="46" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="48" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q132">
-    <cfRule type="cellIs" dxfId="62" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="38" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q133:Q134">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="30" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J205">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J205">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J205">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J205">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J209">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J209">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J209">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J209">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J213">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J213">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J213">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J213">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
